--- a/dadosExperimentais.xlsx
+++ b/dadosExperimentais.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuilhermeZaborowsky\Documents\Escola\Insper\Modelagem e Simulação\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvbit\Documents\MS\Projeto 2\Programa\Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Time [min]</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>COMENDO</t>
+  </si>
+  <si>
+    <t>chupando</t>
   </si>
 </sst>
 </file>
@@ -174,13 +177,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,6 +278,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -310,6 +330,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,36 +502,36 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="G3" s="6" t="s">
+      <c r="D3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -502,14 +539,14 @@
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="3">
         <v>-0.47780126000000001</v>
@@ -524,7 +561,7 @@
         <v>6.5391429999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2">
         <v>1.0951375000000001</v>
@@ -539,7 +576,7 @@
         <v>3.5323477000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2">
         <v>2.1606765000000001</v>
@@ -554,7 +591,7 @@
         <v>0.67059183</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="2">
         <v>3.1754756</v>
@@ -569,7 +606,7 @@
         <v>0.54666983999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2">
         <v>4.1902746999999998</v>
@@ -584,7 +621,7 @@
         <v>1.5065829999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="2">
         <v>5.1543340000000004</v>
@@ -599,7 +636,7 @@
         <v>5.0389305999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2">
         <v>6.1183934000000004</v>
@@ -610,7 +647,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2">
         <v>7.1331924999999998</v>
@@ -621,7 +658,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2">
         <v>8.1479909999999993</v>
@@ -629,10 +666,12 @@
       <c r="D13" s="2">
         <v>144.62685999999999</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2">
         <v>9.0613109999999999</v>
@@ -643,7 +682,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2">
         <v>10.126849999999999</v>
@@ -654,7 +693,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2">
         <v>12.105708</v>
@@ -665,7 +704,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>15.099366</v>
       </c>
@@ -675,7 +714,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>18.143763</v>
       </c>
@@ -683,7 +722,7 @@
         <v>77.014920000000004</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>22.507400000000001</v>
       </c>
